--- a/backend/shipping/data/success.xlsx
+++ b/backend/shipping/data/success.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>AWB No</t>
   </si>
@@ -21,15 +21,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>90001507982</t>
-  </si>
-  <si>
-    <t>CR176882775326</t>
-  </si>
-  <si>
-    <t>2026-01-19T13:03:42.242138524</t>
   </si>
 </sst>
 </file>
@@ -74,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -91,17 +82,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/backend/shipping/data/success.xlsx
+++ b/backend/shipping/data/success.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>AWB No</t>
   </si>
@@ -21,6 +21,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>77707349661</t>
+  </si>
+  <si>
+    <t>CR940111</t>
+  </si>
+  <si>
+    <t>2026-02-03T07:10:52.846504044</t>
   </si>
 </sst>
 </file>
@@ -65,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,6 +91,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/backend/shipping/data/success.xlsx
+++ b/backend/shipping/data/success.xlsx
@@ -23,13 +23,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>77707349661</t>
+    <t>77707349716</t>
   </si>
   <si>
-    <t>CR940111</t>
+    <t>CR940116</t>
   </si>
   <si>
-    <t>2026-02-03T07:10:52.846504044</t>
+    <t>2026-02-03T07:39:49.353376525</t>
   </si>
 </sst>
 </file>

--- a/backend/shipping/data/success.xlsx
+++ b/backend/shipping/data/success.xlsx
@@ -23,13 +23,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>77707349716</t>
+    <t>77707349731</t>
   </si>
   <si>
-    <t>CR940116</t>
+    <t>CR940118</t>
   </si>
   <si>
-    <t>2026-02-03T07:39:49.353376525</t>
+    <t>2026-02-03T08:40:11.131594984</t>
   </si>
 </sst>
 </file>

--- a/backend/shipping/data/success.xlsx
+++ b/backend/shipping/data/success.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>AWB No</t>
   </si>
@@ -21,15 +21,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>77707349731</t>
-  </si>
-  <si>
-    <t>CR940118</t>
-  </si>
-  <si>
-    <t>2026-02-03T08:40:11.131594984</t>
   </si>
 </sst>
 </file>
@@ -74,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -91,17 +82,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/backend/shipping/data/success.xlsx
+++ b/backend/shipping/data/success.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>AWB No</t>
   </si>
@@ -21,6 +21,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>77707350195</t>
+  </si>
+  <si>
+    <t>CR940126</t>
+  </si>
+  <si>
+    <t>2026-02-04T13:31:26.532791488</t>
   </si>
 </sst>
 </file>
@@ -65,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,6 +91,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
